--- a/TempLate/Debtors.xlsx
+++ b/TempLate/Debtors.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="135" yWindow="840" windowWidth="14175" windowHeight="7260"/>
@@ -84,13 +84,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Times New Roman Cyr"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color indexed="18"/>
       <name val="Times New Roman Cyr"/>
@@ -112,14 +105,20 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <name val="Times New Roman Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Times New Roman Cyr"/>
       <charset val="204"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color indexed="56"/>
       <name val="Times New Roman Cyr"/>
       <charset val="204"/>
@@ -317,65 +316,65 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -758,26 +757,26 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.28515625" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="2:8" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
@@ -789,59 +788,59 @@
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="e">
+      <c r="B3" s="25" t="e">
         <f>XLRPARAMS_OnDate</f>
         <v>#NAME?</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="2:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="16"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="16"/>
+      <c r="H6" s="12"/>
     </row>
-    <row r="7" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="10" t="e">
+    <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="e">
         <f>KAgent_N</f>
         <v>#NAME?</v>
       </c>
-      <c r="C7" s="23" t="e">
+      <c r="C7" s="20" t="e">
         <f>Kagent_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="11" t="e">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23" t="e">
         <f>Kagent_SALDO</f>
         <v>#NAME?</v>
       </c>
-      <c r="H7" s="12" t="e">
+      <c r="H7" s="24" t="e">
         <f>G7*-1</f>
         <v>#NAME?</v>
       </c>
@@ -870,8 +869,8 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>